--- a/models/BD MCC.xlsx
+++ b/models/BD MCC.xlsx
@@ -2277,10 +2277,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6621,26 +6621,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Manuel Gomez Valladares</t>
+          <t>Angy Chavez</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>25</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Soltero(a)</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>23</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -6649,26 +6640,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Eli Juarez Rodriguez</t>
+          <t>SANCHEZ</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>23</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Soltero(a)</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>42</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -6677,26 +6659,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Jefa Gamer</t>
+          <t>dssd</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>23</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Soltero(a)</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12</v>
+      </c>
+      <c r="F183" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -6705,19 +6678,14 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Angy Chavez</t>
+          <t>jaja</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+        <v>27</v>
       </c>
       <c r="F184" t="n">
         <v>20</v>
@@ -6729,14 +6697,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>fff</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F185" t="n">
         <v>10</v>
@@ -6748,14 +6716,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>loca</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F186" t="n">
         <v>20</v>
@@ -6763,21 +6731,21 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Karla Tovar</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -6786,17 +6754,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Joe Doe</t>
+          <t>La adris</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
@@ -6805,17 +6773,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Jenn</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -6824,17 +6792,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Gonzalo</t>
+          <t>Katia</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F190" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
@@ -6843,14 +6811,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Gisselle</t>
+          <t>Efra</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F191" t="n">
         <v>10</v>
@@ -6862,14 +6830,14 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Romina Gomez</t>
+          <t>Samai</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F192" t="n">
         <v>10</v>
@@ -6881,17 +6849,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Jade Gomez</t>
+          <t>Yoselin</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
@@ -6900,14 +6868,14 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lia Gomez</t>
+          <t>Paty</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F194" t="n">
         <v>10</v>
@@ -6919,14 +6887,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Elian Gomez</t>
+          <t>ew</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F195" t="n">
         <v>10</v>
@@ -6938,14 +6906,19 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SÁNCHEZ</t>
+          <t>Jjejjea1</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F196" t="n">
         <v>10</v>
@@ -6953,18 +6926,23 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Julio Alberto</t>
+          <t>Jjejjea1</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F197" t="n">
         <v>10</v>
@@ -6972,18 +6950,18 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Juan Alberto</t>
+          <t>Julion</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F198" t="n">
         <v>10</v>
@@ -6991,18 +6969,18 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Juan Alberto</t>
+          <t>ea</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F199" t="n">
         <v>10</v>
@@ -7010,56 +6988,56 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Juan Alberto</t>
+          <t>Kas</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sdk</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="F201" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Belt</t>
+          <t>manu</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="F202" t="n">
         <v>10</v>
@@ -7067,37 +7045,37 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>icdi</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>jsja</t>
+          <t>wilson</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F204" t="n">
         <v>10</v>
@@ -7105,18 +7083,23 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>rigby</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F205" t="n">
         <v>10</v>
@@ -7124,18 +7107,18 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>aldoxito</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F206" t="n">
         <v>10</v>
@@ -7143,18 +7126,18 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>q3</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F207" t="n">
         <v>10</v>
@@ -7162,56 +7145,66 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>shadow</t>
+          <t>kjdsjk</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>pablo</t>
+          <t>Koshitan</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Bashame</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F210" t="n">
         <v>10</v>
@@ -7219,37 +7212,42 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>martin</t>
+          <t>jsaj</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F211" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sod</t>
+          <t>Angy Chavez</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F212" t="n">
         <v>10</v>
@@ -7257,18 +7255,18 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>A ver</t>
+          <t>kjdsjk</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F213" t="n">
         <v>10</v>
@@ -7276,25 +7274,158 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>kjdsjk</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Barrera Rodriguez Francisco</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
-        <v>42</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>34</v>
+      </c>
+      <c r="F215" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>jisaij</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>29</v>
+      </c>
+      <c r="F216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Manuel Gomez Valladares</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ola</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>32</v>
+      </c>
+      <c r="F218" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>jijijija</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>62</v>
+      </c>
+      <c r="F219" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
+      </c>
+      <c r="F221" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7312,10 +7443,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182:I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -13252,133 +13383,44 @@
       <c r="A181" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>2011-2</t>
-        </is>
-      </c>
-      <c r="F181" t="n">
-        <v>8</v>
+      <c r="C181" t="n">
+        <v>1</v>
       </c>
       <c r="G181" t="n">
         <v>100</v>
-      </c>
-      <c r="H181" t="n">
-        <v>28</v>
-      </c>
-      <c r="I181" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
         <v>181</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Tesis</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Carrera*</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Línea</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F182" t="n">
-        <v>7</v>
+      <c r="C182" t="n">
+        <v>2</v>
       </c>
       <c r="G182" t="n">
-        <v>7</v>
-      </c>
-      <c r="H182" t="n">
-        <v>7</v>
-      </c>
-      <c r="I182" t="n">
-        <v>7</v>
+        <v>95.63</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
         <v>182</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Línea</t>
-        </is>
+      <c r="C183" t="n">
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>98</v>
-      </c>
-      <c r="H183" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
         <v>183</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
       <c r="C184" t="n">
         <v>1</v>
       </c>
-      <c r="D184" t="n">
-        <v>4</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>2019-2</t>
-        </is>
-      </c>
-      <c r="F184" t="n">
-        <v>8</v>
-      </c>
       <c r="G184" t="n">
-        <v>100</v>
-      </c>
-      <c r="H184" t="n">
-        <v>100</v>
-      </c>
-      <c r="I184" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185">
@@ -13386,62 +13428,32 @@
         <v>184</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>98.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
         <v>185</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
       <c r="C186" t="n">
         <v>1</v>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>2011-3</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
+        <v>186</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>2011-3</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188">
@@ -13452,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189">
@@ -13529,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -13537,208 +13549,285 @@
         <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>95.63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>93.23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" t="n">
-        <v>93.23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>93.23</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>93.23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202" t="n">
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>89.09</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G206" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G207" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G208" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211" t="n">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>93.23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
-      <c r="C214" t="n">
-        <v>1</v>
-      </c>
-      <c r="G214" t="n">
-        <v>89.45</v>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+      <c r="G216" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2</v>
+      </c>
+      <c r="G220" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -13752,10 +13841,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -21030,107 +21119,11 @@
       <c r="A181" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>89</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>98</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>87</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="I181" t="n">
-        <v>57</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="K181" t="n">
-        <v>87</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
         <v>181</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>7</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>7</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>7</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I182" t="n">
-        <v>7</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K182" t="n">
-        <v>7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -21141,42 +21134,6 @@
       <c r="A184" t="n">
         <v>183</v>
       </c>
-      <c r="B184" t="n">
-        <v>100</v>
-      </c>
-      <c r="C184" t="n">
-        <v>100</v>
-      </c>
-      <c r="D184" t="n">
-        <v>100</v>
-      </c>
-      <c r="E184" t="n">
-        <v>100</v>
-      </c>
-      <c r="F184" t="n">
-        <v>100</v>
-      </c>
-      <c r="G184" t="n">
-        <v>100</v>
-      </c>
-      <c r="H184" t="n">
-        <v>100</v>
-      </c>
-      <c r="I184" t="n">
-        <v>100</v>
-      </c>
-      <c r="J184" t="n">
-        <v>100</v>
-      </c>
-      <c r="K184" t="n">
-        <v>100</v>
-      </c>
-      <c r="L184" t="n">
-        <v>100</v>
-      </c>
-      <c r="M184" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -21190,7 +21147,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188">
@@ -21240,92 +21197,127 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
         <v>213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -21339,10 +21331,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182:M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -28754,83 +28746,11 @@
       <c r="A181" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="n">
-        <v>8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>8</v>
-      </c>
-      <c r="G181" t="n">
-        <v>8</v>
-      </c>
-      <c r="H181" t="n">
-        <v>8</v>
-      </c>
-      <c r="I181" t="n">
-        <v>8</v>
-      </c>
-      <c r="J181" t="n">
-        <v>8</v>
-      </c>
-      <c r="K181" t="n">
-        <v>8</v>
-      </c>
-      <c r="L181" t="n">
-        <v>8</v>
-      </c>
-      <c r="M181" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
         <v>181</v>
       </c>
-      <c r="B182" t="n">
-        <v>7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7</v>
-      </c>
-      <c r="D182" t="n">
-        <v>7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>7</v>
-      </c>
-      <c r="F182" t="n">
-        <v>7</v>
-      </c>
-      <c r="G182" t="n">
-        <v>7</v>
-      </c>
-      <c r="H182" t="n">
-        <v>7</v>
-      </c>
-      <c r="I182" t="n">
-        <v>7</v>
-      </c>
-      <c r="J182" t="n">
-        <v>7</v>
-      </c>
-      <c r="K182" t="n">
-        <v>7</v>
-      </c>
-      <c r="L182" t="n">
-        <v>7</v>
-      </c>
-      <c r="M182" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -28841,42 +28761,6 @@
       <c r="A184" t="n">
         <v>183</v>
       </c>
-      <c r="B184" t="n">
-        <v>7</v>
-      </c>
-      <c r="C184" t="n">
-        <v>7</v>
-      </c>
-      <c r="D184" t="n">
-        <v>7</v>
-      </c>
-      <c r="E184" t="n">
-        <v>7</v>
-      </c>
-      <c r="F184" t="n">
-        <v>7</v>
-      </c>
-      <c r="G184" t="n">
-        <v>7</v>
-      </c>
-      <c r="H184" t="n">
-        <v>7</v>
-      </c>
-      <c r="I184" t="n">
-        <v>7</v>
-      </c>
-      <c r="J184" t="n">
-        <v>7</v>
-      </c>
-      <c r="K184" t="n">
-        <v>7</v>
-      </c>
-      <c r="L184" t="n">
-        <v>7</v>
-      </c>
-      <c r="M184" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -28890,7 +28774,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188">
@@ -28940,92 +28824,127 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
         <v>213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -29042,10 +28961,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG214"/>
+  <dimension ref="A1:AG221"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:AG188"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -47303,100 +47222,100 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -47404,100 +47323,100 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K182" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M182" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
         <v>7</v>
       </c>
       <c r="O182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P182" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q182" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R182" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T182" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U182" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="V182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W182" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X182" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB182" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC182" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AD182" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG182" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -47505,100 +47424,100 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O183" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="P183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V183" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="W183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y183" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="Z183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AD183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -47606,100 +47525,100 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -47707,100 +47626,100 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -47808,100 +47727,100 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M186" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="N186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O186" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S186" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="T186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W186" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X186" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="Y186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA186" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE186" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="AF186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -47909,100 +47828,100 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="T187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X187" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Y187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE187" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AF187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -48010,100 +47929,100 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG188" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -48111,100 +48030,100 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -48212,100 +48131,100 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG190" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -48313,100 +48232,100 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -48414,100 +48333,100 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -48515,100 +48434,100 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -48616,100 +48535,100 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -48717,100 +48636,100 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG195" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -48818,97 +48737,97 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M196" t="n">
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P196" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q196" t="n">
         <v>0</v>
       </c>
       <c r="R196" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U196" t="n">
         <v>0</v>
       </c>
       <c r="V196" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W196" t="n">
         <v>0</v>
       </c>
       <c r="X196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC196" t="n">
         <v>0</v>
       </c>
       <c r="AD196" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF196" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG196" t="n">
         <v>0</v>
@@ -48916,100 +48835,100 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197" t="n">
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O197" t="n">
         <v>0</v>
       </c>
       <c r="P197" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q197" t="n">
         <v>0</v>
       </c>
       <c r="R197" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U197" t="n">
         <v>0</v>
       </c>
       <c r="V197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X197" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y197" t="n">
         <v>0</v>
       </c>
       <c r="Z197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB197" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC197" t="n">
         <v>0</v>
       </c>
       <c r="AD197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE197" t="n">
         <v>0</v>
       </c>
       <c r="AF197" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG197" t="n">
         <v>0</v>
@@ -49017,100 +48936,100 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M198" t="n">
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O198" t="n">
         <v>0</v>
       </c>
       <c r="P198" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q198" t="n">
         <v>0</v>
       </c>
       <c r="R198" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U198" t="n">
         <v>0</v>
       </c>
       <c r="V198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X198" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y198" t="n">
         <v>0</v>
       </c>
       <c r="Z198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB198" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC198" t="n">
         <v>0</v>
       </c>
       <c r="AD198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE198" t="n">
         <v>0</v>
       </c>
       <c r="AF198" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG198" t="n">
         <v>0</v>
@@ -49118,100 +49037,100 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M199" t="n">
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O199" t="n">
         <v>0</v>
       </c>
       <c r="P199" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q199" t="n">
         <v>0</v>
       </c>
       <c r="R199" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
       </c>
       <c r="V199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X199" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y199" t="n">
         <v>0</v>
       </c>
       <c r="Z199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB199" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC199" t="n">
         <v>0</v>
       </c>
       <c r="AD199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE199" t="n">
         <v>0</v>
       </c>
       <c r="AF199" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG199" t="n">
         <v>0</v>
@@ -49219,100 +49138,100 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200" t="n">
         <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O200" t="n">
         <v>0</v>
       </c>
       <c r="P200" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
       </c>
       <c r="R200" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U200" t="n">
         <v>0</v>
       </c>
       <c r="V200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X200" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y200" t="n">
         <v>0</v>
       </c>
       <c r="Z200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB200" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC200" t="n">
         <v>0</v>
       </c>
       <c r="AD200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE200" t="n">
         <v>0</v>
       </c>
       <c r="AF200" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG200" t="n">
         <v>0</v>
@@ -49320,209 +49239,209 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O201" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="P201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R201" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W201" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB201" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AC201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE201" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AF201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG201" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O202" t="n">
         <v>0</v>
       </c>
       <c r="P202" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q202" t="n">
         <v>0</v>
       </c>
       <c r="R202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T202" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W202" t="n">
         <v>0</v>
       </c>
       <c r="X202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE202" t="n">
         <v>0</v>
       </c>
       <c r="AF202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -49623,7 +49542,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -49724,7 +49643,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -49825,7 +49744,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -49926,7 +49845,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -50027,7 +49946,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -50128,7 +50047,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -50229,7 +50148,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -50330,7 +50249,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -50431,7 +50350,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -50532,100 +50451,100 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M213" t="n">
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O213" t="n">
         <v>0</v>
       </c>
       <c r="P213" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q213" t="n">
         <v>0</v>
       </c>
       <c r="R213" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U213" t="n">
         <v>0</v>
       </c>
       <c r="V213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X213" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y213" t="n">
         <v>0</v>
       </c>
       <c r="Z213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB213" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC213" t="n">
         <v>0</v>
       </c>
       <c r="AD213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE213" t="n">
         <v>0</v>
       </c>
       <c r="AF213" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG213" t="n">
         <v>0</v>
@@ -50633,103 +50552,810 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" t="n">
+        <v>0</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" t="n">
+        <v>0</v>
+      </c>
+      <c r="V214" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" t="n">
+        <v>0</v>
+      </c>
+      <c r="X214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
-      <c r="B214" t="n">
-        <v>6</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>10</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>8</v>
-      </c>
-      <c r="G214" t="n">
-        <v>1</v>
-      </c>
-      <c r="H214" t="n">
-        <v>5</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
-      <c r="J214" t="n">
-        <v>8</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0</v>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="n">
-        <v>0</v>
-      </c>
-      <c r="N214" t="n">
-        <v>5</v>
-      </c>
-      <c r="O214" t="n">
-        <v>1</v>
-      </c>
-      <c r="P214" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q214" t="n">
-        <v>0</v>
-      </c>
-      <c r="R214" t="n">
-        <v>3</v>
-      </c>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-      <c r="T214" t="n">
-        <v>6</v>
-      </c>
-      <c r="U214" t="n">
-        <v>1</v>
-      </c>
-      <c r="V214" t="n">
-        <v>4</v>
-      </c>
-      <c r="W214" t="n">
-        <v>1</v>
-      </c>
-      <c r="X214" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y214" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z214" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA214" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB214" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC214" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD214" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE214" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF214" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG214" t="n">
-        <v>1</v>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>11</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>11</v>
+      </c>
+      <c r="J215" t="n">
+        <v>11</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>11</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1</v>
+      </c>
+      <c r="P215" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>11</v>
+      </c>
+      <c r="R215" t="n">
+        <v>1</v>
+      </c>
+      <c r="S215" t="n">
+        <v>1</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1</v>
+      </c>
+      <c r="U215" t="n">
+        <v>1</v>
+      </c>
+      <c r="V215" t="n">
+        <v>1</v>
+      </c>
+      <c r="W215" t="n">
+        <v>11</v>
+      </c>
+      <c r="X215" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
+      <c r="S216" t="n">
+        <v>0</v>
+      </c>
+      <c r="T216" t="n">
+        <v>0</v>
+      </c>
+      <c r="U216" t="n">
+        <v>0</v>
+      </c>
+      <c r="V216" t="n">
+        <v>0</v>
+      </c>
+      <c r="W216" t="n">
+        <v>0</v>
+      </c>
+      <c r="X216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" t="n">
+        <v>0</v>
+      </c>
+      <c r="T217" t="n">
+        <v>0</v>
+      </c>
+      <c r="U217" t="n">
+        <v>0</v>
+      </c>
+      <c r="V217" t="n">
+        <v>0</v>
+      </c>
+      <c r="W217" t="n">
+        <v>0</v>
+      </c>
+      <c r="X217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
+      <c r="S218" t="n">
+        <v>0</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" t="n">
+        <v>0</v>
+      </c>
+      <c r="V218" t="n">
+        <v>0</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0</v>
+      </c>
+      <c r="X218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
+      <c r="S219" t="n">
+        <v>0</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0</v>
+      </c>
+      <c r="U219" t="n">
+        <v>0</v>
+      </c>
+      <c r="V219" t="n">
+        <v>0</v>
+      </c>
+      <c r="W219" t="n">
+        <v>0</v>
+      </c>
+      <c r="X219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
+      <c r="S220" t="n">
+        <v>0</v>
+      </c>
+      <c r="T220" t="n">
+        <v>0</v>
+      </c>
+      <c r="U220" t="n">
+        <v>0</v>
+      </c>
+      <c r="V220" t="n">
+        <v>0</v>
+      </c>
+      <c r="W220" t="n">
+        <v>0</v>
+      </c>
+      <c r="X220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
+      <c r="S221" t="n">
+        <v>0</v>
+      </c>
+      <c r="T221" t="n">
+        <v>0</v>
+      </c>
+      <c r="U221" t="n">
+        <v>0</v>
+      </c>
+      <c r="V221" t="n">
+        <v>0</v>
+      </c>
+      <c r="W221" t="n">
+        <v>0</v>
+      </c>
+      <c r="X221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -50746,10 +51372,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -54611,54 +55237,42 @@
       <c r="A181" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="n">
-        <v>21</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="D181" t="n">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
         <v>181</v>
       </c>
-      <c r="B182" t="n">
-        <v>7</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="D182" t="n">
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>7</v>
+        <v>43.75</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
         <v>182</v>
       </c>
-      <c r="B183" t="n">
-        <v>11</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="D183" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E183" t="n">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -54666,18 +55280,21 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>TML2S-9</t>
+          <t>we</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -54685,10 +55302,13 @@
         <v>184</v>
       </c>
       <c r="D185" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -54696,10 +55316,13 @@
         <v>185</v>
       </c>
       <c r="D186" t="n">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>181</v>
+        <v>100</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="187">
@@ -54707,10 +55330,13 @@
         <v>186</v>
       </c>
       <c r="D187" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>181</v>
+        <v>50</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -54718,10 +55344,13 @@
         <v>187</v>
       </c>
       <c r="D188" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E188" t="n">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -54729,10 +55358,13 @@
         <v>188</v>
       </c>
       <c r="D189" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -54740,10 +55372,13 @@
         <v>189</v>
       </c>
       <c r="D190" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -54751,10 +55386,13 @@
         <v>190</v>
       </c>
       <c r="D191" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E191" t="n">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -54762,10 +55400,13 @@
         <v>191</v>
       </c>
       <c r="D192" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E192" t="n">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -54773,10 +55414,13 @@
         <v>192</v>
       </c>
       <c r="D193" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E193" t="n">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -54784,10 +55428,13 @@
         <v>193</v>
       </c>
       <c r="D194" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E194" t="n">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -54795,21 +55442,24 @@
         <v>194</v>
       </c>
       <c r="D195" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E195" t="n">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D196" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E196" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -54820,90 +55470,111 @@
         <v>195</v>
       </c>
       <c r="D197" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E197" t="n">
-        <v>43.75</v>
+        <v>34</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D198" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E198" t="n">
-        <v>43.75</v>
+        <v>23</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D199" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E199" t="n">
-        <v>37.5</v>
+        <v>12</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D200" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E200" t="n">
-        <v>37.5</v>
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D201" t="n">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="E201" t="n">
-        <v>37.5</v>
+        <v>34</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-28</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E202" t="n">
-        <v>37.5</v>
+        <v>3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D203" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E203" t="n">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D204" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E204" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -54911,82 +55582,97 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D205" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E205" t="n">
-        <v>68.75</v>
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E206" t="n">
-        <v>68.75</v>
+        <v>3</v>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E210" t="n">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="F210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E211" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
@@ -54994,24 +55680,27 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -55019,60 +55708,69 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E214" t="n">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E215" t="n">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E216" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
@@ -55080,24 +55778,27 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E219" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E220" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -55105,78 +55806,17 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>211</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E221" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>211</v>
-      </c>
-      <c r="D222" t="n">
-        <v>7</v>
-      </c>
-      <c r="E222" t="n">
-        <v>52</v>
-      </c>
-      <c r="F222" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>212</v>
-      </c>
-      <c r="D223" t="n">
-        <v>6</v>
-      </c>
-      <c r="E223" t="n">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>212</v>
-      </c>
-      <c r="D224" t="n">
-        <v>6</v>
-      </c>
-      <c r="E224" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F224" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>213</v>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="n">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>213</v>
-      </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="n">
-        <v>11</v>
-      </c>
-      <c r="E226" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="F226" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/models/BD MCC.xlsx
+++ b/models/BD MCC.xlsx
@@ -2277,7 +2277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
       <selection activeCell="B187" sqref="B187"/>
@@ -7426,6 +7426,258 @@
         <v>3</v>
       </c>
       <c r="F221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Jorge</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>23</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Poll</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>32</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>VAZQUEZ</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>36</v>
+      </c>
+      <c r="F224" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>34</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Jorgito</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>21</v>
+      </c>
+      <c r="F226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>lito</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>26</v>
+      </c>
+      <c r="F227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Gisselle</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>27</v>
+      </c>
+      <c r="F228" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Antonio</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>27</v>
+      </c>
+      <c r="F229" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ALICE</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>25</v>
+      </c>
+      <c r="F230" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Heinsengberg</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>53</v>
+      </c>
+      <c r="F231" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Carlitos</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>28</v>
+      </c>
+      <c r="F232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>29</v>
+      </c>
+      <c r="F233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>29</v>
+      </c>
+      <c r="F234" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7443,7 +7695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:I182"/>
@@ -13828,6 +14080,149 @@
       </c>
       <c r="G221" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2</v>
+      </c>
+      <c r="G224" t="n">
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="G226" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13841,7 +14236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A182" sqref="A182"/>
@@ -21318,6 +21713,71 @@
     <row r="221">
       <c r="A221" t="n">
         <v>219</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -21331,7 +21791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:M182"/>
@@ -28945,6 +29405,71 @@
     <row r="221">
       <c r="A221" t="n">
         <v>219</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -28961,7 +29486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG221"/>
+  <dimension ref="A1:AG234"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="F195" sqref="F195"/>
@@ -51355,6 +51880,1319 @@
         <v>0</v>
       </c>
       <c r="AG221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" t="n">
+        <v>0</v>
+      </c>
+      <c r="T222" t="n">
+        <v>0</v>
+      </c>
+      <c r="U222" t="n">
+        <v>0</v>
+      </c>
+      <c r="V222" t="n">
+        <v>0</v>
+      </c>
+      <c r="W222" t="n">
+        <v>0</v>
+      </c>
+      <c r="X222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>0</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0</v>
+      </c>
+      <c r="U223" t="n">
+        <v>0</v>
+      </c>
+      <c r="V223" t="n">
+        <v>0</v>
+      </c>
+      <c r="W223" t="n">
+        <v>0</v>
+      </c>
+      <c r="X223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>5</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>4</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>6</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>5</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1</v>
+      </c>
+      <c r="P224" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>1</v>
+      </c>
+      <c r="R224" t="n">
+        <v>5</v>
+      </c>
+      <c r="S224" t="n">
+        <v>1</v>
+      </c>
+      <c r="T224" t="n">
+        <v>5</v>
+      </c>
+      <c r="U224" t="n">
+        <v>1</v>
+      </c>
+      <c r="V224" t="n">
+        <v>8</v>
+      </c>
+      <c r="W224" t="n">
+        <v>0</v>
+      </c>
+      <c r="X224" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
+      <c r="S225" t="n">
+        <v>0</v>
+      </c>
+      <c r="T225" t="n">
+        <v>0</v>
+      </c>
+      <c r="U225" t="n">
+        <v>0</v>
+      </c>
+      <c r="V225" t="n">
+        <v>0</v>
+      </c>
+      <c r="W225" t="n">
+        <v>0</v>
+      </c>
+      <c r="X225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>0</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="n">
+        <v>0</v>
+      </c>
+      <c r="X227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="n">
+        <v>0</v>
+      </c>
+      <c r="X228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>0</v>
+      </c>
+      <c r="T229" t="n">
+        <v>0</v>
+      </c>
+      <c r="U229" t="n">
+        <v>0</v>
+      </c>
+      <c r="V229" t="n">
+        <v>0</v>
+      </c>
+      <c r="W229" t="n">
+        <v>0</v>
+      </c>
+      <c r="X229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" t="n">
+        <v>0</v>
+      </c>
+      <c r="T230" t="n">
+        <v>0</v>
+      </c>
+      <c r="U230" t="n">
+        <v>0</v>
+      </c>
+      <c r="V230" t="n">
+        <v>0</v>
+      </c>
+      <c r="W230" t="n">
+        <v>0</v>
+      </c>
+      <c r="X230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>0</v>
+      </c>
+      <c r="T231" t="n">
+        <v>0</v>
+      </c>
+      <c r="U231" t="n">
+        <v>0</v>
+      </c>
+      <c r="V231" t="n">
+        <v>0</v>
+      </c>
+      <c r="W231" t="n">
+        <v>0</v>
+      </c>
+      <c r="X231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" t="n">
+        <v>0</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" t="n">
+        <v>0</v>
+      </c>
+      <c r="V232" t="n">
+        <v>0</v>
+      </c>
+      <c r="W232" t="n">
+        <v>0</v>
+      </c>
+      <c r="X232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" t="n">
+        <v>0</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" t="n">
+        <v>0</v>
+      </c>
+      <c r="V233" t="n">
+        <v>0</v>
+      </c>
+      <c r="W233" t="n">
+        <v>0</v>
+      </c>
+      <c r="X233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="n">
+        <v>0</v>
+      </c>
+      <c r="T234" t="n">
+        <v>0</v>
+      </c>
+      <c r="U234" t="n">
+        <v>0</v>
+      </c>
+      <c r="V234" t="n">
+        <v>0</v>
+      </c>
+      <c r="W234" t="n">
+        <v>0</v>
+      </c>
+      <c r="X234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51372,7 +53210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="A182" sqref="A182"/>
@@ -55808,7 +57646,6 @@
       <c r="A221" t="n">
         <v>219</v>
       </c>
-      <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
         <v>3</v>
       </c>
@@ -55817,6 +57654,550 @@
       </c>
       <c r="F221" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="D223" t="n">
+        <v>7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>45</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="D224" t="n">
+        <v>14</v>
+      </c>
+      <c r="E224" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="D226" t="n">
+        <v>16</v>
+      </c>
+      <c r="E226" t="n">
+        <v>100</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="D227" t="n">
+        <v>16</v>
+      </c>
+      <c r="E227" t="n">
+        <v>100</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>227</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4</v>
+      </c>
+      <c r="G230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>228</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>229</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>229</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>4</v>
+      </c>
+      <c r="G233" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>229</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>4</v>
+      </c>
+      <c r="G234" t="n">
+        <v>4</v>
+      </c>
+      <c r="H234" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>229</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>4</v>
+      </c>
+      <c r="G235" t="n">
+        <v>4</v>
+      </c>
+      <c r="H235" t="n">
+        <v>4</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>229</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>4</v>
+      </c>
+      <c r="G236" t="n">
+        <v>4</v>
+      </c>
+      <c r="H236" t="n">
+        <v>4</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4</v>
+      </c>
+      <c r="J236" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>230</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>230</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4</v>
+      </c>
+      <c r="G238" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>230</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>4</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4</v>
+      </c>
+      <c r="H239" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>230</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>4</v>
+      </c>
+      <c r="G240" t="n">
+        <v>4</v>
+      </c>
+      <c r="H240" t="n">
+        <v>4</v>
+      </c>
+      <c r="I240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>230</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>4</v>
+      </c>
+      <c r="G241" t="n">
+        <v>4</v>
+      </c>
+      <c r="H241" t="n">
+        <v>4</v>
+      </c>
+      <c r="I241" t="n">
+        <v>4</v>
+      </c>
+      <c r="J241" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>231</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>231</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>4</v>
+      </c>
+      <c r="G243" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>231</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>4</v>
+      </c>
+      <c r="G244" t="n">
+        <v>4</v>
+      </c>
+      <c r="H244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>231</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>4</v>
+      </c>
+      <c r="G245" t="n">
+        <v>4</v>
+      </c>
+      <c r="H245" t="n">
+        <v>4</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>231</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4</v>
+      </c>
+      <c r="G246" t="n">
+        <v>4</v>
+      </c>
+      <c r="H246" t="n">
+        <v>4</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4</v>
+      </c>
+      <c r="J246" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>232</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>232</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>4</v>
+      </c>
+      <c r="G248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>232</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4</v>
+      </c>
+      <c r="G249" t="n">
+        <v>4</v>
+      </c>
+      <c r="H249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>232</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2</v>
+      </c>
+      <c r="F250" t="n">
+        <v>4</v>
+      </c>
+      <c r="G250" t="n">
+        <v>4</v>
+      </c>
+      <c r="H250" t="n">
+        <v>4</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>232</v>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="n">
+        <v>2</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>4</v>
+      </c>
+      <c r="G251" t="n">
+        <v>4</v>
+      </c>
+      <c r="H251" t="n">
+        <v>4</v>
+      </c>
+      <c r="I251" t="n">
+        <v>4</v>
+      </c>
+      <c r="J251" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/models/BD MCC.xlsx
+++ b/models/BD MCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALUMNOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -2277,9 +2277,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F234"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+    <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
@@ -7678,6 +7678,510 @@
         <v>29</v>
       </c>
       <c r="F234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>VIDAL</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>36</v>
+      </c>
+      <c r="F235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>VIDAL</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>36</v>
+      </c>
+      <c r="F236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>VIDAL G</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>36</v>
+      </c>
+      <c r="F237" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ROSADITO</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>39</v>
+      </c>
+      <c r="F238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>PEDROZA</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>38</v>
+      </c>
+      <c r="F239" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>GALÁN</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>40</v>
+      </c>
+      <c r="F240" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Addry Scalette</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>25</v>
+      </c>
+      <c r="F241" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Oli</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>23</v>
+      </c>
+      <c r="F242" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>13</v>
+      </c>
+      <c r="F243" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Mia</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>45</v>
+      </c>
+      <c r="F244" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>45</v>
+      </c>
+      <c r="F245" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>45</v>
+      </c>
+      <c r="F246" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Krilin</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>45</v>
+      </c>
+      <c r="F247" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Krilin</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>45</v>
+      </c>
+      <c r="F248" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Krilin</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>45</v>
+      </c>
+      <c r="F249" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Onion</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>32</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Jacinto</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>32</v>
+      </c>
+      <c r="F251" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Ala</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>42</v>
+      </c>
+      <c r="F252" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>34</v>
+      </c>
+      <c r="F253" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>27</v>
+      </c>
+      <c r="F254" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Eli Juarez</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>23</v>
+      </c>
+      <c r="F255" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Jefa pro tips</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>23</v>
+      </c>
+      <c r="F256" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Palacio De Hierro</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>25</v>
+      </c>
+      <c r="F257" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Kobayashi</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>27</v>
+      </c>
+      <c r="F258" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Kanna</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F259" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Voidkotan</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>26</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7695,7 +8199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:I182"/>
@@ -14222,6 +14726,292 @@
         <v>1</v>
       </c>
       <c r="G234" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>89.72</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="G240" t="n">
+        <v>93.63</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+      <c r="G244" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
+      <c r="G245" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G246" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="G250" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14236,7 +15026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A182" sqref="A182"/>
@@ -21778,6 +22568,136 @@
     <row r="234">
       <c r="A234" t="n">
         <v>232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -21791,7 +22711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:M182"/>
@@ -29470,6 +30390,136 @@
     <row r="234">
       <c r="A234" t="n">
         <v>232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -29486,7 +30536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG234"/>
+  <dimension ref="A1:AG260"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="F195" sqref="F195"/>
@@ -53193,6 +54243,2632 @@
         <v>0</v>
       </c>
       <c r="AG234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>7</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>7</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>7</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>4</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>8</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1</v>
+      </c>
+      <c r="P235" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>1</v>
+      </c>
+      <c r="R235" t="n">
+        <v>5</v>
+      </c>
+      <c r="S235" t="n">
+        <v>1</v>
+      </c>
+      <c r="T235" t="n">
+        <v>6</v>
+      </c>
+      <c r="U235" t="n">
+        <v>1</v>
+      </c>
+      <c r="V235" t="n">
+        <v>4</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1</v>
+      </c>
+      <c r="X235" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>7</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>7</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>4</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>8</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1</v>
+      </c>
+      <c r="P236" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>1</v>
+      </c>
+      <c r="R236" t="n">
+        <v>5</v>
+      </c>
+      <c r="S236" t="n">
+        <v>1</v>
+      </c>
+      <c r="T236" t="n">
+        <v>6</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1</v>
+      </c>
+      <c r="V236" t="n">
+        <v>4</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1</v>
+      </c>
+      <c r="X236" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>7</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>7</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>4</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>8</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1</v>
+      </c>
+      <c r="P237" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>1</v>
+      </c>
+      <c r="R237" t="n">
+        <v>5</v>
+      </c>
+      <c r="S237" t="n">
+        <v>1</v>
+      </c>
+      <c r="T237" t="n">
+        <v>6</v>
+      </c>
+      <c r="U237" t="n">
+        <v>1</v>
+      </c>
+      <c r="V237" t="n">
+        <v>4</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1</v>
+      </c>
+      <c r="X237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>9</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>10</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>5</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>8</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>5</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>7</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1</v>
+      </c>
+      <c r="P238" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="n">
+        <v>4</v>
+      </c>
+      <c r="S238" t="n">
+        <v>1</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1</v>
+      </c>
+      <c r="U238" t="n">
+        <v>0</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1</v>
+      </c>
+      <c r="X238" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>8</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>6</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>5</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>4</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1</v>
+      </c>
+      <c r="P239" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>1</v>
+      </c>
+      <c r="R239" t="n">
+        <v>4</v>
+      </c>
+      <c r="S239" t="n">
+        <v>1</v>
+      </c>
+      <c r="T239" t="n">
+        <v>3</v>
+      </c>
+      <c r="U239" t="n">
+        <v>1</v>
+      </c>
+      <c r="V239" t="n">
+        <v>4</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>10</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>8</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="n">
+        <v>5</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>7</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>5</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>7</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1</v>
+      </c>
+      <c r="P240" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>1</v>
+      </c>
+      <c r="R240" t="n">
+        <v>5</v>
+      </c>
+      <c r="S240" t="n">
+        <v>1</v>
+      </c>
+      <c r="T240" t="n">
+        <v>4</v>
+      </c>
+      <c r="U240" t="n">
+        <v>1</v>
+      </c>
+      <c r="V240" t="n">
+        <v>1</v>
+      </c>
+      <c r="W240" t="n">
+        <v>0</v>
+      </c>
+      <c r="X240" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="n">
+        <v>0</v>
+      </c>
+      <c r="T241" t="n">
+        <v>0</v>
+      </c>
+      <c r="U241" t="n">
+        <v>0</v>
+      </c>
+      <c r="V241" t="n">
+        <v>0</v>
+      </c>
+      <c r="W241" t="n">
+        <v>0</v>
+      </c>
+      <c r="X241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" t="n">
+        <v>0</v>
+      </c>
+      <c r="T242" t="n">
+        <v>0</v>
+      </c>
+      <c r="U242" t="n">
+        <v>0</v>
+      </c>
+      <c r="V242" t="n">
+        <v>0</v>
+      </c>
+      <c r="W242" t="n">
+        <v>0</v>
+      </c>
+      <c r="X242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="n">
+        <v>0</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" t="n">
+        <v>0</v>
+      </c>
+      <c r="V243" t="n">
+        <v>0</v>
+      </c>
+      <c r="W243" t="n">
+        <v>0</v>
+      </c>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" t="n">
+        <v>0</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" t="n">
+        <v>0</v>
+      </c>
+      <c r="V244" t="n">
+        <v>0</v>
+      </c>
+      <c r="W244" t="n">
+        <v>0</v>
+      </c>
+      <c r="X244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="n">
+        <v>0</v>
+      </c>
+      <c r="T245" t="n">
+        <v>0</v>
+      </c>
+      <c r="U245" t="n">
+        <v>0</v>
+      </c>
+      <c r="V245" t="n">
+        <v>0</v>
+      </c>
+      <c r="W245" t="n">
+        <v>0</v>
+      </c>
+      <c r="X245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>0</v>
+      </c>
+      <c r="T246" t="n">
+        <v>0</v>
+      </c>
+      <c r="U246" t="n">
+        <v>0</v>
+      </c>
+      <c r="V246" t="n">
+        <v>0</v>
+      </c>
+      <c r="W246" t="n">
+        <v>0</v>
+      </c>
+      <c r="X246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>0</v>
+      </c>
+      <c r="T247" t="n">
+        <v>0</v>
+      </c>
+      <c r="U247" t="n">
+        <v>0</v>
+      </c>
+      <c r="V247" t="n">
+        <v>0</v>
+      </c>
+      <c r="W247" t="n">
+        <v>0</v>
+      </c>
+      <c r="X247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" t="n">
+        <v>0</v>
+      </c>
+      <c r="T248" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" t="n">
+        <v>0</v>
+      </c>
+      <c r="V248" t="n">
+        <v>0</v>
+      </c>
+      <c r="W248" t="n">
+        <v>0</v>
+      </c>
+      <c r="X248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="n">
+        <v>0</v>
+      </c>
+      <c r="T249" t="n">
+        <v>0</v>
+      </c>
+      <c r="U249" t="n">
+        <v>0</v>
+      </c>
+      <c r="V249" t="n">
+        <v>0</v>
+      </c>
+      <c r="W249" t="n">
+        <v>0</v>
+      </c>
+      <c r="X249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="n">
+        <v>0</v>
+      </c>
+      <c r="T250" t="n">
+        <v>0</v>
+      </c>
+      <c r="U250" t="n">
+        <v>0</v>
+      </c>
+      <c r="V250" t="n">
+        <v>0</v>
+      </c>
+      <c r="W250" t="n">
+        <v>0</v>
+      </c>
+      <c r="X250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" t="n">
+        <v>0</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" t="n">
+        <v>0</v>
+      </c>
+      <c r="V251" t="n">
+        <v>0</v>
+      </c>
+      <c r="W251" t="n">
+        <v>0</v>
+      </c>
+      <c r="X251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="n">
+        <v>0</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0</v>
+      </c>
+      <c r="V252" t="n">
+        <v>0</v>
+      </c>
+      <c r="W252" t="n">
+        <v>0</v>
+      </c>
+      <c r="X252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>0</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" t="n">
+        <v>0</v>
+      </c>
+      <c r="X253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
+      <c r="S254" t="n">
+        <v>0</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>0</v>
+      </c>
+      <c r="W254" t="n">
+        <v>0</v>
+      </c>
+      <c r="X254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>0</v>
+      </c>
+      <c r="T255" t="n">
+        <v>0</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0</v>
+      </c>
+      <c r="V255" t="n">
+        <v>0</v>
+      </c>
+      <c r="W255" t="n">
+        <v>0</v>
+      </c>
+      <c r="X255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>0</v>
+      </c>
+      <c r="T256" t="n">
+        <v>0</v>
+      </c>
+      <c r="U256" t="n">
+        <v>0</v>
+      </c>
+      <c r="V256" t="n">
+        <v>0</v>
+      </c>
+      <c r="W256" t="n">
+        <v>0</v>
+      </c>
+      <c r="X256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" t="n">
+        <v>0</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0</v>
+      </c>
+      <c r="U257" t="n">
+        <v>0</v>
+      </c>
+      <c r="V257" t="n">
+        <v>0</v>
+      </c>
+      <c r="W257" t="n">
+        <v>0</v>
+      </c>
+      <c r="X257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
+      <c r="S258" t="n">
+        <v>0</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0</v>
+      </c>
+      <c r="U258" t="n">
+        <v>0</v>
+      </c>
+      <c r="V258" t="n">
+        <v>0</v>
+      </c>
+      <c r="W258" t="n">
+        <v>0</v>
+      </c>
+      <c r="X258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
+      <c r="S259" t="n">
+        <v>0</v>
+      </c>
+      <c r="T259" t="n">
+        <v>0</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0</v>
+      </c>
+      <c r="V259" t="n">
+        <v>0</v>
+      </c>
+      <c r="W259" t="n">
+        <v>0</v>
+      </c>
+      <c r="X259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
+      <c r="S260" t="n">
+        <v>0</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0</v>
+      </c>
+      <c r="V260" t="n">
+        <v>0</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0</v>
+      </c>
+      <c r="X260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53210,10 +56886,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -58177,7 +61853,6 @@
       <c r="A251" t="n">
         <v>232</v>
       </c>
-      <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
         <v>2</v>
       </c>
@@ -58197,6 +61872,395 @@
         <v>4</v>
       </c>
       <c r="J251" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>233</v>
+      </c>
+      <c r="D252" t="n">
+        <v>15</v>
+      </c>
+      <c r="E252" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>234</v>
+      </c>
+      <c r="D253" t="n">
+        <v>15</v>
+      </c>
+      <c r="E253" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>235</v>
+      </c>
+      <c r="D254" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>236</v>
+      </c>
+      <c r="D255" t="n">
+        <v>10</v>
+      </c>
+      <c r="E255" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>237</v>
+      </c>
+      <c r="D256" t="n">
+        <v>12</v>
+      </c>
+      <c r="E256" t="n">
+        <v>75</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>238</v>
+      </c>
+      <c r="D257" t="n">
+        <v>14</v>
+      </c>
+      <c r="E257" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>239</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>240</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>241</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>234</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>242</v>
+      </c>
+      <c r="D261" t="n">
+        <v>8</v>
+      </c>
+      <c r="E261" t="n">
+        <v>50</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>243</v>
+      </c>
+      <c r="D262" t="n">
+        <v>14</v>
+      </c>
+      <c r="E262" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>244</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>245</v>
+      </c>
+      <c r="B264" t="n">
+        <v>32</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>246</v>
+      </c>
+      <c r="B265" t="n">
+        <v>32</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>247</v>
+      </c>
+      <c r="B266" t="n">
+        <v>32</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>248</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>249</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>250</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>251</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>252</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>253</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>254</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>255</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>256</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>257</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>258</v>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
         <v>4</v>
       </c>
     </row>

--- a/models/BD MCC.xlsx
+++ b/models/BD MCC.xlsx
@@ -2277,7 +2277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="B187" sqref="B187"/>
@@ -8183,6 +8183,643 @@
       </c>
       <c r="F260" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>32</v>
+      </c>
+      <c r="F261" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Skibidi</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>67</v>
+      </c>
+      <c r="F262" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Neko Neko Yamada</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>26</v>
+      </c>
+      <c r="F263" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Bashame Meme</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>27</v>
+      </c>
+      <c r="F264" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Sasha</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>79</v>
+      </c>
+      <c r="F265" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>51</v>
+      </c>
+      <c r="F266" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>assa</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>21</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Jajaj</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>45</v>
+      </c>
+      <c r="F268" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>12</v>
+      </c>
+      <c r="F269" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Zully</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>45</v>
+      </c>
+      <c r="F270" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Ola</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>23</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Darla</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>25</v>
+      </c>
+      <c r="F272" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Olitas</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>26</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Juanito</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>73</v>
+      </c>
+      <c r="F274" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>ELI JUAREZ</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>23</v>
+      </c>
+      <c r="F275" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Ponyo</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>29</v>
+      </c>
+      <c r="F276" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Edward</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>46</v>
+      </c>
+      <c r="F277" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Manlab</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>29</v>
+      </c>
+      <c r="F278" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Manlab</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>29</v>
+      </c>
+      <c r="F279" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>El pan</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>29</v>
+      </c>
+      <c r="F280" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Lilian</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>27</v>
+      </c>
+      <c r="F281" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Amaury</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>24</v>
+      </c>
+      <c r="F282" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>54</v>
+      </c>
+      <c r="F283" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>34</v>
+      </c>
+      <c r="F284" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Jijija</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>34</v>
+      </c>
+      <c r="F285" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>23</v>
+      </c>
+      <c r="F286" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>OLA</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>29</v>
+      </c>
+      <c r="F287" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>OLA</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>29</v>
+      </c>
+      <c r="F288" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>OLA</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>29</v>
+      </c>
+      <c r="F289" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>OLA</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>29</v>
+      </c>
+      <c r="F290" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>OLA</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>29</v>
+      </c>
+      <c r="F291" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>JEJEJ</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>27</v>
+      </c>
+      <c r="F292" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Copilot</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>43</v>
+      </c>
+      <c r="F293" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8199,7 +8836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:I182"/>
@@ -15012,6 +15649,369 @@
         <v>1</v>
       </c>
       <c r="G260" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2</v>
+      </c>
+      <c r="G262" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="G266" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="G270" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="G271" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="G273" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="G274" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="G275" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="G276" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="G277" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="G280" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="G292" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="n">
         <v>100</v>
       </c>
     </row>
@@ -15026,7 +16026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A182" sqref="A182"/>
@@ -22698,6 +23698,171 @@
     <row r="260">
       <c r="A260" t="n">
         <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -22711,7 +23876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:M182"/>
@@ -30520,6 +31685,171 @@
     <row r="260">
       <c r="A260" t="n">
         <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -30536,7 +31866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG260"/>
+  <dimension ref="A1:AG293"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="F195" sqref="F195"/>
@@ -56869,6 +58199,3339 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
+      <c r="S261" t="n">
+        <v>0</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0</v>
+      </c>
+      <c r="U261" t="n">
+        <v>0</v>
+      </c>
+      <c r="V261" t="n">
+        <v>0</v>
+      </c>
+      <c r="W261" t="n">
+        <v>0</v>
+      </c>
+      <c r="X261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
+      <c r="S262" t="n">
+        <v>0</v>
+      </c>
+      <c r="T262" t="n">
+        <v>0</v>
+      </c>
+      <c r="U262" t="n">
+        <v>0</v>
+      </c>
+      <c r="V262" t="n">
+        <v>0</v>
+      </c>
+      <c r="W262" t="n">
+        <v>0</v>
+      </c>
+      <c r="X262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
+      <c r="S263" t="n">
+        <v>0</v>
+      </c>
+      <c r="T263" t="n">
+        <v>0</v>
+      </c>
+      <c r="U263" t="n">
+        <v>0</v>
+      </c>
+      <c r="V263" t="n">
+        <v>0</v>
+      </c>
+      <c r="W263" t="n">
+        <v>0</v>
+      </c>
+      <c r="X263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" t="n">
+        <v>0</v>
+      </c>
+      <c r="T264" t="n">
+        <v>0</v>
+      </c>
+      <c r="U264" t="n">
+        <v>0</v>
+      </c>
+      <c r="V264" t="n">
+        <v>0</v>
+      </c>
+      <c r="W264" t="n">
+        <v>0</v>
+      </c>
+      <c r="X264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
+      <c r="S265" t="n">
+        <v>0</v>
+      </c>
+      <c r="T265" t="n">
+        <v>0</v>
+      </c>
+      <c r="U265" t="n">
+        <v>0</v>
+      </c>
+      <c r="V265" t="n">
+        <v>0</v>
+      </c>
+      <c r="W265" t="n">
+        <v>0</v>
+      </c>
+      <c r="X265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
+      <c r="S266" t="n">
+        <v>0</v>
+      </c>
+      <c r="T266" t="n">
+        <v>0</v>
+      </c>
+      <c r="U266" t="n">
+        <v>0</v>
+      </c>
+      <c r="V266" t="n">
+        <v>0</v>
+      </c>
+      <c r="W266" t="n">
+        <v>0</v>
+      </c>
+      <c r="X266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
+      <c r="S267" t="n">
+        <v>0</v>
+      </c>
+      <c r="T267" t="n">
+        <v>0</v>
+      </c>
+      <c r="U267" t="n">
+        <v>0</v>
+      </c>
+      <c r="V267" t="n">
+        <v>0</v>
+      </c>
+      <c r="W267" t="n">
+        <v>0</v>
+      </c>
+      <c r="X267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
+      <c r="S268" t="n">
+        <v>0</v>
+      </c>
+      <c r="T268" t="n">
+        <v>0</v>
+      </c>
+      <c r="U268" t="n">
+        <v>0</v>
+      </c>
+      <c r="V268" t="n">
+        <v>0</v>
+      </c>
+      <c r="W268" t="n">
+        <v>0</v>
+      </c>
+      <c r="X268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
+      <c r="S269" t="n">
+        <v>0</v>
+      </c>
+      <c r="T269" t="n">
+        <v>0</v>
+      </c>
+      <c r="U269" t="n">
+        <v>0</v>
+      </c>
+      <c r="V269" t="n">
+        <v>0</v>
+      </c>
+      <c r="W269" t="n">
+        <v>0</v>
+      </c>
+      <c r="X269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" t="n">
+        <v>0</v>
+      </c>
+      <c r="T270" t="n">
+        <v>0</v>
+      </c>
+      <c r="U270" t="n">
+        <v>0</v>
+      </c>
+      <c r="V270" t="n">
+        <v>0</v>
+      </c>
+      <c r="W270" t="n">
+        <v>0</v>
+      </c>
+      <c r="X270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
+      <c r="S271" t="n">
+        <v>0</v>
+      </c>
+      <c r="T271" t="n">
+        <v>0</v>
+      </c>
+      <c r="U271" t="n">
+        <v>0</v>
+      </c>
+      <c r="V271" t="n">
+        <v>0</v>
+      </c>
+      <c r="W271" t="n">
+        <v>0</v>
+      </c>
+      <c r="X271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
+      <c r="S272" t="n">
+        <v>0</v>
+      </c>
+      <c r="T272" t="n">
+        <v>0</v>
+      </c>
+      <c r="U272" t="n">
+        <v>0</v>
+      </c>
+      <c r="V272" t="n">
+        <v>0</v>
+      </c>
+      <c r="W272" t="n">
+        <v>0</v>
+      </c>
+      <c r="X272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
+      <c r="S273" t="n">
+        <v>0</v>
+      </c>
+      <c r="T273" t="n">
+        <v>0</v>
+      </c>
+      <c r="U273" t="n">
+        <v>0</v>
+      </c>
+      <c r="V273" t="n">
+        <v>0</v>
+      </c>
+      <c r="W273" t="n">
+        <v>0</v>
+      </c>
+      <c r="X273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>0</v>
+      </c>
+      <c r="T274" t="n">
+        <v>0</v>
+      </c>
+      <c r="U274" t="n">
+        <v>0</v>
+      </c>
+      <c r="V274" t="n">
+        <v>0</v>
+      </c>
+      <c r="W274" t="n">
+        <v>0</v>
+      </c>
+      <c r="X274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
+      <c r="S275" t="n">
+        <v>0</v>
+      </c>
+      <c r="T275" t="n">
+        <v>0</v>
+      </c>
+      <c r="U275" t="n">
+        <v>0</v>
+      </c>
+      <c r="V275" t="n">
+        <v>0</v>
+      </c>
+      <c r="W275" t="n">
+        <v>0</v>
+      </c>
+      <c r="X275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+      <c r="S276" t="n">
+        <v>0</v>
+      </c>
+      <c r="T276" t="n">
+        <v>0</v>
+      </c>
+      <c r="U276" t="n">
+        <v>0</v>
+      </c>
+      <c r="V276" t="n">
+        <v>0</v>
+      </c>
+      <c r="W276" t="n">
+        <v>0</v>
+      </c>
+      <c r="X276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
+      <c r="S277" t="n">
+        <v>0</v>
+      </c>
+      <c r="T277" t="n">
+        <v>0</v>
+      </c>
+      <c r="U277" t="n">
+        <v>0</v>
+      </c>
+      <c r="V277" t="n">
+        <v>0</v>
+      </c>
+      <c r="W277" t="n">
+        <v>0</v>
+      </c>
+      <c r="X277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
+      <c r="S278" t="n">
+        <v>0</v>
+      </c>
+      <c r="T278" t="n">
+        <v>0</v>
+      </c>
+      <c r="U278" t="n">
+        <v>0</v>
+      </c>
+      <c r="V278" t="n">
+        <v>0</v>
+      </c>
+      <c r="W278" t="n">
+        <v>0</v>
+      </c>
+      <c r="X278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
+      <c r="S279" t="n">
+        <v>0</v>
+      </c>
+      <c r="T279" t="n">
+        <v>0</v>
+      </c>
+      <c r="U279" t="n">
+        <v>0</v>
+      </c>
+      <c r="V279" t="n">
+        <v>0</v>
+      </c>
+      <c r="W279" t="n">
+        <v>0</v>
+      </c>
+      <c r="X279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
+      <c r="S280" t="n">
+        <v>0</v>
+      </c>
+      <c r="T280" t="n">
+        <v>0</v>
+      </c>
+      <c r="U280" t="n">
+        <v>0</v>
+      </c>
+      <c r="V280" t="n">
+        <v>0</v>
+      </c>
+      <c r="W280" t="n">
+        <v>0</v>
+      </c>
+      <c r="X280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
+      <c r="S281" t="n">
+        <v>0</v>
+      </c>
+      <c r="T281" t="n">
+        <v>0</v>
+      </c>
+      <c r="U281" t="n">
+        <v>0</v>
+      </c>
+      <c r="V281" t="n">
+        <v>0</v>
+      </c>
+      <c r="W281" t="n">
+        <v>0</v>
+      </c>
+      <c r="X281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
+      <c r="S282" t="n">
+        <v>0</v>
+      </c>
+      <c r="T282" t="n">
+        <v>0</v>
+      </c>
+      <c r="U282" t="n">
+        <v>0</v>
+      </c>
+      <c r="V282" t="n">
+        <v>0</v>
+      </c>
+      <c r="W282" t="n">
+        <v>0</v>
+      </c>
+      <c r="X282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
+      <c r="S283" t="n">
+        <v>0</v>
+      </c>
+      <c r="T283" t="n">
+        <v>0</v>
+      </c>
+      <c r="U283" t="n">
+        <v>0</v>
+      </c>
+      <c r="V283" t="n">
+        <v>0</v>
+      </c>
+      <c r="W283" t="n">
+        <v>0</v>
+      </c>
+      <c r="X283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
+      <c r="S284" t="n">
+        <v>0</v>
+      </c>
+      <c r="T284" t="n">
+        <v>0</v>
+      </c>
+      <c r="U284" t="n">
+        <v>0</v>
+      </c>
+      <c r="V284" t="n">
+        <v>0</v>
+      </c>
+      <c r="W284" t="n">
+        <v>0</v>
+      </c>
+      <c r="X284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
+      <c r="S285" t="n">
+        <v>0</v>
+      </c>
+      <c r="T285" t="n">
+        <v>0</v>
+      </c>
+      <c r="U285" t="n">
+        <v>0</v>
+      </c>
+      <c r="V285" t="n">
+        <v>0</v>
+      </c>
+      <c r="W285" t="n">
+        <v>0</v>
+      </c>
+      <c r="X285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
+      <c r="S286" t="n">
+        <v>0</v>
+      </c>
+      <c r="T286" t="n">
+        <v>0</v>
+      </c>
+      <c r="U286" t="n">
+        <v>0</v>
+      </c>
+      <c r="V286" t="n">
+        <v>0</v>
+      </c>
+      <c r="W286" t="n">
+        <v>0</v>
+      </c>
+      <c r="X286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
+      <c r="S287" t="n">
+        <v>0</v>
+      </c>
+      <c r="T287" t="n">
+        <v>0</v>
+      </c>
+      <c r="U287" t="n">
+        <v>0</v>
+      </c>
+      <c r="V287" t="n">
+        <v>0</v>
+      </c>
+      <c r="W287" t="n">
+        <v>0</v>
+      </c>
+      <c r="X287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
+      <c r="S288" t="n">
+        <v>0</v>
+      </c>
+      <c r="T288" t="n">
+        <v>0</v>
+      </c>
+      <c r="U288" t="n">
+        <v>0</v>
+      </c>
+      <c r="V288" t="n">
+        <v>0</v>
+      </c>
+      <c r="W288" t="n">
+        <v>0</v>
+      </c>
+      <c r="X288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
+      <c r="S289" t="n">
+        <v>0</v>
+      </c>
+      <c r="T289" t="n">
+        <v>0</v>
+      </c>
+      <c r="U289" t="n">
+        <v>0</v>
+      </c>
+      <c r="V289" t="n">
+        <v>0</v>
+      </c>
+      <c r="W289" t="n">
+        <v>0</v>
+      </c>
+      <c r="X289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
+      <c r="S290" t="n">
+        <v>0</v>
+      </c>
+      <c r="T290" t="n">
+        <v>0</v>
+      </c>
+      <c r="U290" t="n">
+        <v>0</v>
+      </c>
+      <c r="V290" t="n">
+        <v>0</v>
+      </c>
+      <c r="W290" t="n">
+        <v>0</v>
+      </c>
+      <c r="X290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
+      <c r="S291" t="n">
+        <v>0</v>
+      </c>
+      <c r="T291" t="n">
+        <v>0</v>
+      </c>
+      <c r="U291" t="n">
+        <v>0</v>
+      </c>
+      <c r="V291" t="n">
+        <v>0</v>
+      </c>
+      <c r="W291" t="n">
+        <v>0</v>
+      </c>
+      <c r="X291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1</v>
+      </c>
+      <c r="P292" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>1</v>
+      </c>
+      <c r="R292" t="n">
+        <v>1</v>
+      </c>
+      <c r="S292" t="n">
+        <v>1</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1</v>
+      </c>
+      <c r="U292" t="n">
+        <v>1</v>
+      </c>
+      <c r="V292" t="n">
+        <v>1</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1</v>
+      </c>
+      <c r="X292" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
+      <c r="S293" t="n">
+        <v>0</v>
+      </c>
+      <c r="T293" t="n">
+        <v>0</v>
+      </c>
+      <c r="U293" t="n">
+        <v>0</v>
+      </c>
+      <c r="V293" t="n">
+        <v>0</v>
+      </c>
+      <c r="W293" t="n">
+        <v>0</v>
+      </c>
+      <c r="X293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56886,7 +61549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J277"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
       <selection activeCell="F255" sqref="F255"/>
@@ -62253,7 +66916,6 @@
       <c r="A277" t="n">
         <v>258</v>
       </c>
-      <c r="C277" t="inlineStr"/>
       <c r="D277" t="n">
         <v>1</v>
       </c>
@@ -62262,6 +66924,469 @@
       </c>
       <c r="F277" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>259</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>260</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>261</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>262</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>263</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>264</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>265</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>266</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+      <c r="F285" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>267</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+      <c r="F286" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>268</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>269</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F288" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>270</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F289" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>271</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>272</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1</v>
+      </c>
+      <c r="F291" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>273</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>274</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>275</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>276</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F295" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>277</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>278</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>279</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+      <c r="F298" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>280</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F299" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>281</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>282</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>283</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>284</v>
+      </c>
+      <c r="D303" t="n">
+        <v>8</v>
+      </c>
+      <c r="E303" t="n">
+        <v>50</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>285</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>286</v>
+      </c>
+      <c r="D305" t="n">
+        <v>8</v>
+      </c>
+      <c r="E305" t="n">
+        <v>5</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>287</v>
+      </c>
+      <c r="D306" t="n">
+        <v>11</v>
+      </c>
+      <c r="E306" t="n">
+        <v>70</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>288</v>
+      </c>
+      <c r="D307" t="n">
+        <v>15</v>
+      </c>
+      <c r="E307" t="n">
+        <v>90</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>289</v>
+      </c>
+      <c r="D308" t="n">
+        <v>16</v>
+      </c>
+      <c r="E308" t="n">
+        <v>100</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>290</v>
+      </c>
+      <c r="D309" t="n">
+        <v>16</v>
+      </c>
+      <c r="E309" t="n">
+        <v>100</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>291</v>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="n">
+        <v>16</v>
+      </c>
+      <c r="E310" t="n">
+        <v>100</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/models/BD MCC.xlsx
+++ b/models/BD MCC.xlsx
@@ -2277,7 +2277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
     <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="B187" sqref="B187"/>
@@ -8820,6 +8820,443 @@
       </c>
       <c r="F293" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Jorgito</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>34</v>
+      </c>
+      <c r="F294" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>34</v>
+      </c>
+      <c r="F295" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>34</v>
+      </c>
+      <c r="F296" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="n">
+        <v>34</v>
+      </c>
+      <c r="F297" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>JIJIJA</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>29</v>
+      </c>
+      <c r="F298" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>29</v>
+      </c>
+      <c r="F299" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>uuu</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>39</v>
+      </c>
+      <c r="F300" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>lineas</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>32</v>
+      </c>
+      <c r="F301" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>rene</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>23</v>
+      </c>
+      <c r="F302" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>angel</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>35</v>
+      </c>
+      <c r="F303" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>rodrigo</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>37</v>
+      </c>
+      <c r="F304" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Hola</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>23</v>
+      </c>
+      <c r="F305" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>olis</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>23</v>
+      </c>
+      <c r="F306" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>INDIRA</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>29</v>
+      </c>
+      <c r="F307" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>jejej</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>23</v>
+      </c>
+      <c r="F308" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>25</v>
+      </c>
+      <c r="F309" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>ola</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>37</v>
+      </c>
+      <c r="F310" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Manux</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>54</v>
+      </c>
+      <c r="F311" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>45</v>
+      </c>
+      <c r="F312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>45</v>
+      </c>
+      <c r="F313" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>HOY</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>32</v>
+      </c>
+      <c r="F314" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>HOY</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>32</v>
+      </c>
+      <c r="F315" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>fe</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>26</v>
+      </c>
+      <c r="F316" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8836,7 +9273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:I182"/>
@@ -16012,6 +16449,259 @@
         <v>1</v>
       </c>
       <c r="G293" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G295" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="G297" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="G298" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="G300" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="G301" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="G302" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2</v>
+      </c>
+      <c r="G303" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="G306" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="G307" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="G308" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="G309" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="G310" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="G311" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="G312" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G313" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="G314" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="G315" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2</v>
+      </c>
+      <c r="G316" t="n">
         <v>100</v>
       </c>
     </row>
@@ -16026,7 +16716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M316"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A182" sqref="A182"/>
@@ -23863,6 +24553,121 @@
     <row r="293">
       <c r="A293" t="n">
         <v>291</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -23876,7 +24681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M316"/>
   <sheetViews>
     <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:M182"/>
@@ -31850,6 +32655,121 @@
     <row r="293">
       <c r="A293" t="n">
         <v>291</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -31866,7 +32786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG293"/>
+  <dimension ref="A1:AG316"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="F195" sqref="F195"/>
@@ -61533,6 +62453,2329 @@
       </c>
       <c r="AG293" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>11</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1</v>
+      </c>
+      <c r="P294" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>1</v>
+      </c>
+      <c r="R294" t="n">
+        <v>1</v>
+      </c>
+      <c r="S294" t="n">
+        <v>1</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1</v>
+      </c>
+      <c r="U294" t="n">
+        <v>11</v>
+      </c>
+      <c r="V294" t="n">
+        <v>1</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1</v>
+      </c>
+      <c r="X294" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
+      <c r="S295" t="n">
+        <v>0</v>
+      </c>
+      <c r="T295" t="n">
+        <v>0</v>
+      </c>
+      <c r="U295" t="n">
+        <v>0</v>
+      </c>
+      <c r="V295" t="n">
+        <v>0</v>
+      </c>
+      <c r="W295" t="n">
+        <v>0</v>
+      </c>
+      <c r="X295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
+      <c r="S296" t="n">
+        <v>0</v>
+      </c>
+      <c r="T296" t="n">
+        <v>0</v>
+      </c>
+      <c r="U296" t="n">
+        <v>0</v>
+      </c>
+      <c r="V296" t="n">
+        <v>0</v>
+      </c>
+      <c r="W296" t="n">
+        <v>0</v>
+      </c>
+      <c r="X296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
+      <c r="S297" t="n">
+        <v>0</v>
+      </c>
+      <c r="T297" t="n">
+        <v>0</v>
+      </c>
+      <c r="U297" t="n">
+        <v>0</v>
+      </c>
+      <c r="V297" t="n">
+        <v>0</v>
+      </c>
+      <c r="W297" t="n">
+        <v>0</v>
+      </c>
+      <c r="X297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
+      <c r="S298" t="n">
+        <v>0</v>
+      </c>
+      <c r="T298" t="n">
+        <v>0</v>
+      </c>
+      <c r="U298" t="n">
+        <v>0</v>
+      </c>
+      <c r="V298" t="n">
+        <v>0</v>
+      </c>
+      <c r="W298" t="n">
+        <v>0</v>
+      </c>
+      <c r="X298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
+      <c r="S299" t="n">
+        <v>0</v>
+      </c>
+      <c r="T299" t="n">
+        <v>0</v>
+      </c>
+      <c r="U299" t="n">
+        <v>0</v>
+      </c>
+      <c r="V299" t="n">
+        <v>0</v>
+      </c>
+      <c r="W299" t="n">
+        <v>0</v>
+      </c>
+      <c r="X299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
+      <c r="S300" t="n">
+        <v>0</v>
+      </c>
+      <c r="T300" t="n">
+        <v>0</v>
+      </c>
+      <c r="U300" t="n">
+        <v>0</v>
+      </c>
+      <c r="V300" t="n">
+        <v>0</v>
+      </c>
+      <c r="W300" t="n">
+        <v>0</v>
+      </c>
+      <c r="X300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
+      <c r="S301" t="n">
+        <v>0</v>
+      </c>
+      <c r="T301" t="n">
+        <v>0</v>
+      </c>
+      <c r="U301" t="n">
+        <v>0</v>
+      </c>
+      <c r="V301" t="n">
+        <v>0</v>
+      </c>
+      <c r="W301" t="n">
+        <v>0</v>
+      </c>
+      <c r="X301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
+      <c r="S302" t="n">
+        <v>0</v>
+      </c>
+      <c r="T302" t="n">
+        <v>0</v>
+      </c>
+      <c r="U302" t="n">
+        <v>0</v>
+      </c>
+      <c r="V302" t="n">
+        <v>0</v>
+      </c>
+      <c r="W302" t="n">
+        <v>0</v>
+      </c>
+      <c r="X302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
+      <c r="S303" t="n">
+        <v>0</v>
+      </c>
+      <c r="T303" t="n">
+        <v>0</v>
+      </c>
+      <c r="U303" t="n">
+        <v>0</v>
+      </c>
+      <c r="V303" t="n">
+        <v>0</v>
+      </c>
+      <c r="W303" t="n">
+        <v>0</v>
+      </c>
+      <c r="X303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
+      <c r="S304" t="n">
+        <v>0</v>
+      </c>
+      <c r="T304" t="n">
+        <v>0</v>
+      </c>
+      <c r="U304" t="n">
+        <v>0</v>
+      </c>
+      <c r="V304" t="n">
+        <v>0</v>
+      </c>
+      <c r="W304" t="n">
+        <v>0</v>
+      </c>
+      <c r="X304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
+      <c r="S305" t="n">
+        <v>0</v>
+      </c>
+      <c r="T305" t="n">
+        <v>0</v>
+      </c>
+      <c r="U305" t="n">
+        <v>0</v>
+      </c>
+      <c r="V305" t="n">
+        <v>0</v>
+      </c>
+      <c r="W305" t="n">
+        <v>0</v>
+      </c>
+      <c r="X305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
+      <c r="S306" t="n">
+        <v>0</v>
+      </c>
+      <c r="T306" t="n">
+        <v>0</v>
+      </c>
+      <c r="U306" t="n">
+        <v>0</v>
+      </c>
+      <c r="V306" t="n">
+        <v>0</v>
+      </c>
+      <c r="W306" t="n">
+        <v>0</v>
+      </c>
+      <c r="X306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
+      <c r="S307" t="n">
+        <v>0</v>
+      </c>
+      <c r="T307" t="n">
+        <v>0</v>
+      </c>
+      <c r="U307" t="n">
+        <v>0</v>
+      </c>
+      <c r="V307" t="n">
+        <v>0</v>
+      </c>
+      <c r="W307" t="n">
+        <v>0</v>
+      </c>
+      <c r="X307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
+      <c r="S308" t="n">
+        <v>0</v>
+      </c>
+      <c r="T308" t="n">
+        <v>0</v>
+      </c>
+      <c r="U308" t="n">
+        <v>0</v>
+      </c>
+      <c r="V308" t="n">
+        <v>0</v>
+      </c>
+      <c r="W308" t="n">
+        <v>0</v>
+      </c>
+      <c r="X308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
+      <c r="S309" t="n">
+        <v>0</v>
+      </c>
+      <c r="T309" t="n">
+        <v>0</v>
+      </c>
+      <c r="U309" t="n">
+        <v>0</v>
+      </c>
+      <c r="V309" t="n">
+        <v>0</v>
+      </c>
+      <c r="W309" t="n">
+        <v>0</v>
+      </c>
+      <c r="X309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
+      <c r="S310" t="n">
+        <v>0</v>
+      </c>
+      <c r="T310" t="n">
+        <v>0</v>
+      </c>
+      <c r="U310" t="n">
+        <v>0</v>
+      </c>
+      <c r="V310" t="n">
+        <v>0</v>
+      </c>
+      <c r="W310" t="n">
+        <v>0</v>
+      </c>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
+      <c r="S311" t="n">
+        <v>0</v>
+      </c>
+      <c r="T311" t="n">
+        <v>0</v>
+      </c>
+      <c r="U311" t="n">
+        <v>0</v>
+      </c>
+      <c r="V311" t="n">
+        <v>0</v>
+      </c>
+      <c r="W311" t="n">
+        <v>0</v>
+      </c>
+      <c r="X311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>1</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1</v>
+      </c>
+      <c r="P312" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>1</v>
+      </c>
+      <c r="R312" t="n">
+        <v>1</v>
+      </c>
+      <c r="S312" t="n">
+        <v>1</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1</v>
+      </c>
+      <c r="U312" t="n">
+        <v>1</v>
+      </c>
+      <c r="V312" t="n">
+        <v>1</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1</v>
+      </c>
+      <c r="X312" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+      <c r="O313" t="n">
+        <v>1</v>
+      </c>
+      <c r="P313" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R313" t="n">
+        <v>1</v>
+      </c>
+      <c r="S313" t="n">
+        <v>1</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1</v>
+      </c>
+      <c r="U313" t="n">
+        <v>1</v>
+      </c>
+      <c r="V313" t="n">
+        <v>1</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1</v>
+      </c>
+      <c r="X313" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>11</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1</v>
+      </c>
+      <c r="K314" t="n">
+        <v>11</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+      <c r="O314" t="n">
+        <v>1</v>
+      </c>
+      <c r="P314" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>1</v>
+      </c>
+      <c r="R314" t="n">
+        <v>11</v>
+      </c>
+      <c r="S314" t="n">
+        <v>1</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1</v>
+      </c>
+      <c r="U314" t="n">
+        <v>1</v>
+      </c>
+      <c r="V314" t="n">
+        <v>11</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1</v>
+      </c>
+      <c r="X314" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>11</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>1</v>
+      </c>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+      <c r="O315" t="n">
+        <v>1</v>
+      </c>
+      <c r="P315" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>1</v>
+      </c>
+      <c r="R315" t="n">
+        <v>1</v>
+      </c>
+      <c r="S315" t="n">
+        <v>1</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1</v>
+      </c>
+      <c r="U315" t="n">
+        <v>1</v>
+      </c>
+      <c r="V315" t="n">
+        <v>11</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1</v>
+      </c>
+      <c r="X315" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1</v>
+      </c>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1</v>
+      </c>
+      <c r="P316" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>1</v>
+      </c>
+      <c r="R316" t="n">
+        <v>1</v>
+      </c>
+      <c r="S316" t="n">
+        <v>1</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1</v>
+      </c>
+      <c r="U316" t="n">
+        <v>1</v>
+      </c>
+      <c r="V316" t="n">
+        <v>1</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1</v>
+      </c>
+      <c r="X316" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -61549,7 +64792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J310"/>
+  <dimension ref="A1:J333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
       <selection activeCell="F255" sqref="F255"/>
@@ -67378,7 +70621,6 @@
       <c r="A310" t="n">
         <v>291</v>
       </c>
-      <c r="C310" t="inlineStr"/>
       <c r="D310" t="n">
         <v>16</v>
       </c>
@@ -67387,6 +70629,329 @@
       </c>
       <c r="F310" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>292</v>
+      </c>
+      <c r="D311" t="n">
+        <v>16</v>
+      </c>
+      <c r="E311" t="n">
+        <v>100</v>
+      </c>
+      <c r="F311" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>293</v>
+      </c>
+      <c r="D312" t="n">
+        <v>16</v>
+      </c>
+      <c r="E312" t="n">
+        <v>100</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>294</v>
+      </c>
+      <c r="D313" t="n">
+        <v>8</v>
+      </c>
+      <c r="E313" t="n">
+        <v>50</v>
+      </c>
+      <c r="F313" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>295</v>
+      </c>
+      <c r="D314" t="n">
+        <v>12</v>
+      </c>
+      <c r="E314" t="n">
+        <v>75</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>296</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+      <c r="F315" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>297</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>298</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+      <c r="F317" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>299</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F318" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>300</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F319" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>301</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+      <c r="F320" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>302</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F321" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>303</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>304</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F323" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>305</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+      <c r="F324" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>306</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>307</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>308</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F327" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>309</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+      <c r="F328" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>310</v>
+      </c>
+      <c r="D329" t="n">
+        <v>16</v>
+      </c>
+      <c r="E329" t="n">
+        <v>100</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>311</v>
+      </c>
+      <c r="D330" t="n">
+        <v>12</v>
+      </c>
+      <c r="E330" t="n">
+        <v>78</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>312</v>
+      </c>
+      <c r="D331" t="n">
+        <v>16</v>
+      </c>
+      <c r="E331" t="n">
+        <v>100</v>
+      </c>
+      <c r="F331" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>313</v>
+      </c>
+      <c r="D332" t="n">
+        <v>9</v>
+      </c>
+      <c r="E332" t="n">
+        <v>79</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>314</v>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="n">
+        <v>9</v>
+      </c>
+      <c r="E333" t="n">
+        <v>79</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/models/BD MCC.xlsx
+++ b/models/BD MCC.xlsx
@@ -2277,7 +2277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:F317"/>
@@ -6636,6 +6636,278 @@
         </is>
       </c>
       <c r="F181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>317</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>JOSE RAUL HERNANDEZ LINZAGA</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>23</v>
+      </c>
+      <c r="F182" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>319</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>RAFAEL</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>22</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>320</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>RAFAEL</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>22</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>321</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>27</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>322</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Takagi</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>28</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>323</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>JULIA</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>29</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>324</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>no creo</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>20</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>325</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>olas</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>53</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>326</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>mosca</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>34</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>327</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>oid</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>45</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>328</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>peg</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>45</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>329</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>i3i3</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>39</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>330</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ultimo</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>35</v>
+      </c>
+      <c r="F194" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6653,7 +6925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:I317"/>
@@ -12597,6 +12869,149 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>317</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>319</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>320</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>321</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>322</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>323</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>324</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>325</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>326</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>327</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>328</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>329</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>330</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
         <v>100</v>
       </c>
     </row>
@@ -12611,7 +13026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:M317"/>
@@ -19888,6 +20303,71 @@
     <row r="181">
       <c r="A181" t="n">
         <v>316</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -19901,7 +20381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:M317"/>
@@ -27315,6 +27795,71 @@
     <row r="181">
       <c r="A181" t="n">
         <v>316</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -27331,7 +27876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG181"/>
+  <dimension ref="A1:AG194"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="A181" sqref="A181"/>
@@ -45685,6 +46230,1319 @@
         <v>1</v>
       </c>
       <c r="AG181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>317</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>11</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1</v>
+      </c>
+      <c r="P182" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>11</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1</v>
+      </c>
+      <c r="S182" t="n">
+        <v>1</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1</v>
+      </c>
+      <c r="U182" t="n">
+        <v>1</v>
+      </c>
+      <c r="V182" t="n">
+        <v>11</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1</v>
+      </c>
+      <c r="X182" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>319</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>1</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1</v>
+      </c>
+      <c r="V183" t="n">
+        <v>1</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1</v>
+      </c>
+      <c r="X183" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>320</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>7</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>6</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>8</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1</v>
+      </c>
+      <c r="P184" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>3</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1</v>
+      </c>
+      <c r="T184" t="n">
+        <v>6</v>
+      </c>
+      <c r="U184" t="n">
+        <v>1</v>
+      </c>
+      <c r="V184" t="n">
+        <v>1</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>321</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>11</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1</v>
+      </c>
+      <c r="P185" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>11</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1</v>
+      </c>
+      <c r="V185" t="n">
+        <v>11</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1</v>
+      </c>
+      <c r="X185" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>322</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1</v>
+      </c>
+      <c r="P186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1</v>
+      </c>
+      <c r="V186" t="n">
+        <v>1</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1</v>
+      </c>
+      <c r="X186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>323</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1</v>
+      </c>
+      <c r="P187" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>1</v>
+      </c>
+      <c r="R187" t="n">
+        <v>1</v>
+      </c>
+      <c r="S187" t="n">
+        <v>1</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1</v>
+      </c>
+      <c r="V187" t="n">
+        <v>1</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1</v>
+      </c>
+      <c r="X187" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>324</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1</v>
+      </c>
+      <c r="P188" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>1</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1</v>
+      </c>
+      <c r="S188" t="n">
+        <v>1</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1</v>
+      </c>
+      <c r="U188" t="n">
+        <v>11</v>
+      </c>
+      <c r="V188" t="n">
+        <v>1</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1</v>
+      </c>
+      <c r="X188" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>325</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1</v>
+      </c>
+      <c r="P189" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>1</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1</v>
+      </c>
+      <c r="V189" t="n">
+        <v>1</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1</v>
+      </c>
+      <c r="X189" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>326</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1</v>
+      </c>
+      <c r="P190" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>1</v>
+      </c>
+      <c r="R190" t="n">
+        <v>1</v>
+      </c>
+      <c r="S190" t="n">
+        <v>1</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1</v>
+      </c>
+      <c r="V190" t="n">
+        <v>1</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1</v>
+      </c>
+      <c r="X190" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>327</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1</v>
+      </c>
+      <c r="P191" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>1</v>
+      </c>
+      <c r="R191" t="n">
+        <v>1</v>
+      </c>
+      <c r="S191" t="n">
+        <v>1</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1</v>
+      </c>
+      <c r="V191" t="n">
+        <v>1</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1</v>
+      </c>
+      <c r="X191" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>328</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1</v>
+      </c>
+      <c r="P192" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>1</v>
+      </c>
+      <c r="R192" t="n">
+        <v>1</v>
+      </c>
+      <c r="S192" t="n">
+        <v>1</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1</v>
+      </c>
+      <c r="X192" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>329</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>11</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1</v>
+      </c>
+      <c r="P193" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1</v>
+      </c>
+      <c r="S193" t="n">
+        <v>1</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1</v>
+      </c>
+      <c r="V193" t="n">
+        <v>1</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1</v>
+      </c>
+      <c r="X193" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>330</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1</v>
+      </c>
+      <c r="P194" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>1</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1</v>
+      </c>
+      <c r="S194" t="n">
+        <v>1</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1</v>
+      </c>
+      <c r="X194" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45702,7 +47560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:J334"/>
@@ -49567,7 +51425,6 @@
       <c r="A181" t="n">
         <v>316</v>
       </c>
-      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
         <v>16</v>
       </c>
@@ -49576,6 +51433,189 @@
       </c>
       <c r="F181" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>317</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16</v>
+      </c>
+      <c r="E182" t="n">
+        <v>100</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>319</v>
+      </c>
+      <c r="D183" t="n">
+        <v>16</v>
+      </c>
+      <c r="E183" t="n">
+        <v>100</v>
+      </c>
+      <c r="F183" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>320</v>
+      </c>
+      <c r="D184" t="n">
+        <v>14</v>
+      </c>
+      <c r="E184" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>321</v>
+      </c>
+      <c r="D185" t="n">
+        <v>16</v>
+      </c>
+      <c r="E185" t="n">
+        <v>100</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>322</v>
+      </c>
+      <c r="D186" t="n">
+        <v>16</v>
+      </c>
+      <c r="E186" t="n">
+        <v>80</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>323</v>
+      </c>
+      <c r="D187" t="n">
+        <v>16</v>
+      </c>
+      <c r="E187" t="n">
+        <v>89</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>324</v>
+      </c>
+      <c r="D188" t="n">
+        <v>16</v>
+      </c>
+      <c r="E188" t="n">
+        <v>85</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>325</v>
+      </c>
+      <c r="D189" t="n">
+        <v>16</v>
+      </c>
+      <c r="E189" t="n">
+        <v>78</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>326</v>
+      </c>
+      <c r="D190" t="n">
+        <v>16</v>
+      </c>
+      <c r="E190" t="n">
+        <v>100</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>327</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16</v>
+      </c>
+      <c r="E191" t="n">
+        <v>90</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>328</v>
+      </c>
+      <c r="D192" t="n">
+        <v>100</v>
+      </c>
+      <c r="E192" t="n">
+        <v>79</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>329</v>
+      </c>
+      <c r="D193" t="n">
+        <v>16</v>
+      </c>
+      <c r="E193" t="n">
+        <v>88</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>330</v>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="n">
+        <v>16</v>
+      </c>
+      <c r="E194" t="n">
+        <v>89</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/models/BD MCC.xlsx
+++ b/models/BD MCC.xlsx
@@ -2277,7 +2277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:F317"/>
@@ -6908,6 +6908,177 @@
         <v>35</v>
       </c>
       <c r="F194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>331</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ola</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>28</v>
+      </c>
+      <c r="F195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>332</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>wei</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>44</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>333</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>CALZADA</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>38</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Jorgito</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>39</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Jorgito</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>39</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>338</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>calzada una vez mas</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>39</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>340</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>yorcho</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>34</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>yorcho</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>34</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>342</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>yorcho</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>34</v>
+      </c>
+      <c r="F203" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6925,7 +7096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:I317"/>
@@ -13012,6 +13183,105 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>331</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>332</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>333</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>338</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>340</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>342</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13026,7 +13296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:M317"/>
@@ -20368,6 +20638,51 @@
     <row r="194">
       <c r="A194" t="n">
         <v>330</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -20381,7 +20696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:M317"/>
@@ -27860,6 +28175,51 @@
     <row r="194">
       <c r="A194" t="n">
         <v>330</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -27876,7 +28236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG194"/>
+  <dimension ref="A1:AG203"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="A181" sqref="A181"/>
@@ -47543,6 +47903,915 @@
         <v>1</v>
       </c>
       <c r="AG194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>331</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1</v>
+      </c>
+      <c r="P195" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>1</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1</v>
+      </c>
+      <c r="S195" t="n">
+        <v>1</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1</v>
+      </c>
+      <c r="V195" t="n">
+        <v>1</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1</v>
+      </c>
+      <c r="X195" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>332</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1</v>
+      </c>
+      <c r="P196" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>1</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>333</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6</v>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+      <c r="I197" t="n">
+        <v>9</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3</v>
+      </c>
+      <c r="K197" t="n">
+        <v>6</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="n">
+        <v>5</v>
+      </c>
+      <c r="P197" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>6</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1</v>
+      </c>
+      <c r="S197" t="n">
+        <v>0</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1</v>
+      </c>
+      <c r="U197" t="n">
+        <v>1</v>
+      </c>
+      <c r="V197" t="n">
+        <v>1</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1</v>
+      </c>
+      <c r="X197" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" t="n">
+        <v>4</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>7</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>6</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>8</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1</v>
+      </c>
+      <c r="P198" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>6</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>0</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0</v>
+      </c>
+      <c r="V198" t="n">
+        <v>1</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4</v>
+      </c>
+      <c r="F199" t="n">
+        <v>7</v>
+      </c>
+      <c r="G199" t="n">
+        <v>6</v>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3</v>
+      </c>
+      <c r="K199" t="n">
+        <v>6</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="n">
+        <v>5</v>
+      </c>
+      <c r="P199" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R199" t="n">
+        <v>1</v>
+      </c>
+      <c r="S199" t="n">
+        <v>0</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>1</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1</v>
+      </c>
+      <c r="X199" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>338</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7</v>
+      </c>
+      <c r="G200" t="n">
+        <v>6</v>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+      <c r="I200" t="n">
+        <v>7</v>
+      </c>
+      <c r="J200" t="n">
+        <v>8</v>
+      </c>
+      <c r="K200" t="n">
+        <v>6</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>8</v>
+      </c>
+      <c r="O200" t="n">
+        <v>9</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>6</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>0</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0</v>
+      </c>
+      <c r="V200" t="n">
+        <v>1</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>340</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1</v>
+      </c>
+      <c r="P201" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1</v>
+      </c>
+      <c r="V201" t="n">
+        <v>1</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1</v>
+      </c>
+      <c r="X201" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1</v>
+      </c>
+      <c r="P202" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1</v>
+      </c>
+      <c r="S202" t="n">
+        <v>1</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1</v>
+      </c>
+      <c r="V202" t="n">
+        <v>1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1</v>
+      </c>
+      <c r="X202" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>342</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1</v>
+      </c>
+      <c r="P203" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>1</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>1</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1</v>
+      </c>
+      <c r="V203" t="n">
+        <v>1</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1</v>
+      </c>
+      <c r="X203" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47560,7 +48829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="A181" sqref="A181:J334"/>
@@ -51607,7 +52876,6 @@
       <c r="A194" t="n">
         <v>330</v>
       </c>
-      <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
         <v>16</v>
       </c>
@@ -51616,6 +52884,133 @@
       </c>
       <c r="F194" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>331</v>
+      </c>
+      <c r="D195" t="n">
+        <v>16</v>
+      </c>
+      <c r="E195" t="n">
+        <v>100</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>332</v>
+      </c>
+      <c r="D196" t="n">
+        <v>16</v>
+      </c>
+      <c r="E196" t="n">
+        <v>100</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>333</v>
+      </c>
+      <c r="D197" t="n">
+        <v>14</v>
+      </c>
+      <c r="E197" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335</v>
+      </c>
+      <c r="D198" t="n">
+        <v>14</v>
+      </c>
+      <c r="E198" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336</v>
+      </c>
+      <c r="D199" t="n">
+        <v>14</v>
+      </c>
+      <c r="E199" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>338</v>
+      </c>
+      <c r="D200" t="n">
+        <v>14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>340</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16</v>
+      </c>
+      <c r="E201" t="n">
+        <v>100</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341</v>
+      </c>
+      <c r="D202" t="n">
+        <v>14</v>
+      </c>
+      <c r="E202" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>342</v>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="n">
+        <v>10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>70</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
